--- a/node/execl_export/import/zh_en.xlsx
+++ b/node/execl_export/import/zh_en.xlsx
@@ -2,14 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="9090" windowHeight="4410"/>
+    <workbookView windowWidth="18350" windowHeight="7140"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="jsonWorkSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>key</t>
+  </si>
   <si>
     <t>zh</t>
   </si>
@@ -37,7 +38,7 @@
     <t>en</t>
   </si>
   <si>
-    <t>vn</t>
+    <t>login</t>
   </si>
   <si>
     <t>登录</t>
@@ -46,30 +47,43 @@
     <t>Login</t>
   </si>
   <si>
-    <t xml:space="preserve">Đăng nhập
-</t>
+    <t>register</t>
   </si>
   <si>
     <t>注册</t>
   </si>
   <si>
-    <t xml:space="preserve">Register
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đăng ký
-</t>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>home.0</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>home.1</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>Abouts</t>
+  </si>
+  <si>
+    <t>user.username</t>
   </si>
   <si>
     <t>用户名</t>
   </si>
   <si>
-    <t xml:space="preserve">UserName
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tên tài khoản
-</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>user.password</t>
   </si>
   <si>
     <t>密码</t>
@@ -78,18 +92,22 @@
     <t>PassWord</t>
   </si>
   <si>
-    <t xml:space="preserve">mật khẩu
-</t>
-  </si>
-  <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trang đầu
-</t>
+    <t>user.user_map.alipay</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>Ali Pay</t>
+  </si>
+  <si>
+    <t>user.user_map.wechat</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>Wechat Pay</t>
   </si>
 </sst>
 </file>
@@ -102,7 +120,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,164 +582,154 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -767,7 +782,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -777,9 +792,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -787,39 +802,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,154 +904,226 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="20.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="20.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="19.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1050,98 +1137,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>